--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/BCANCATransactionsValueForecastCoefficients.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/BCANCATransactionsValueForecastCoefficients.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>V1</t>
   </si>
@@ -24,9 +24,6 @@
   </si>
   <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
 </sst>
 </file>
@@ -88,7 +85,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.849062509217918</v>
+        <v>-0.4810784687029628</v>
       </c>
     </row>
     <row r="3">
@@ -96,7 +93,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.29155673516950636</v>
+        <v>0.9476221761610764</v>
       </c>
     </row>
     <row r="4">
@@ -104,15 +101,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-25.25267062817928</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.5720823297346278</v>
+        <v>225.2805515915206</v>
       </c>
     </row>
   </sheetData>
